--- a/McKenzie & Parma/37436879/res_comb.xlsx
+++ b/McKenzie & Parma/37436879/res_comb.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\McKenzie &amp; Parma\37436879\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E75E832-AEFD-454F-92AF-F91F0394BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E11CF-2481-4B65-8105-C6D232D07F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1485" windowWidth="27855" windowHeight="19035" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="9540" yWindow="2385" windowWidth="28770" windowHeight="18420" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$724</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="374">
   <si>
     <t>type</t>
   </si>
@@ -60,6 +63,1101 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>1.1.1 - Bedding and Backfill GAP65 or AP40</t>
+  </si>
+  <si>
+    <t>Frequency - Per Batch</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accept/Reject</t>
+  </si>
+  <si>
+    <t>Measuring Devices - N/A</t>
+  </si>
+  <si>
+    <t>HCL - R</t>
+  </si>
+  <si>
+    <t>SC - SUB</t>
+  </si>
+  <si>
+    <t>Consult - R</t>
+  </si>
+  <si>
+    <t>Hold Points Sign off - Hold Point</t>
+  </si>
+  <si>
+    <t>1.2.1 - PCC Risers/Chambers With HN-HO-72 Load Bearing Capacity</t>
+  </si>
+  <si>
+    <t>Frequency - Each Unit</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.3.3</t>
+  </si>
+  <si>
+    <t>Reporting Format - Dockets / Material Data Sheets</t>
+  </si>
+  <si>
+    <t>Frequency - Each unit</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S9.3.8</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Shop drawings, Dockets/ Visual Checks</t>
+  </si>
+  <si>
+    <t>Reporting Format - Dockets / Technical Data Sheets</t>
+  </si>
+  <si>
+    <t>1.3.1 - Standard Concrete Mix</t>
+  </si>
+  <si>
+    <t>Frequency - Each Structure</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.3.1.1</t>
+  </si>
+  <si>
+    <t>Reporting Format - Design Mix</t>
+  </si>
+  <si>
+    <t>1.4.1 - Reinforcement Bending Schedules</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S14.3.1</t>
+  </si>
+  <si>
+    <t>1.4.2 - Bending Schedules</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S14.4.6</t>
+  </si>
+  <si>
+    <t>1.5.1 - Pipe &amp; Pit Waterproofing – Hydrotite CJ 0725 3K or Similar</t>
+  </si>
+  <si>
+    <t>Frequency - Each Pipe and Structure</t>
+  </si>
+  <si>
+    <t>Spec/standard - DP001-MMD-DRW- UT-B-Z-3100-3117</t>
+  </si>
+  <si>
+    <t>Reporting Format - Dockets/ Technical Data Sheets</t>
+  </si>
+  <si>
+    <t>2.1.1 - Survey Setout Chambers/Pits Position and Heights</t>
+  </si>
+  <si>
+    <t>Frequency - Each Manhole</t>
+  </si>
+  <si>
+    <t>Spec/standard - N/A</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Survey Setout records and Setout pegs, Plans</t>
+  </si>
+  <si>
+    <t>Measuring Devices - GPS, Total Station</t>
+  </si>
+  <si>
+    <t>Reporting Format - Setout CSV file, QC Checklist</t>
+  </si>
+  <si>
+    <t>Remarks - Coordinates mentioned in plans</t>
+  </si>
+  <si>
+    <t>2.2.1 - Excavation Extents</t>
+  </si>
+  <si>
+    <t>Frequency - Each element installed</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - N/A</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Rotating level and GPS</t>
+  </si>
+  <si>
+    <t>Reporting Format - N/A</t>
+  </si>
+  <si>
+    <t>HCL - M</t>
+  </si>
+  <si>
+    <t>2.2.2 - Chambers/Pits subgrade testing</t>
+  </si>
+  <si>
+    <t>Frequency - Utility Access Chambers: 2 tests at the base of excavation</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC Checklist, Visual Checks, Excel &amp; pdf</t>
+  </si>
+  <si>
+    <t>Consult - W</t>
+  </si>
+  <si>
+    <t>Hold Points Sign off - Witness Point</t>
+  </si>
+  <si>
+    <t>2.2.3 - 200mm thick 20MPa concrete bedding</t>
+  </si>
+  <si>
+    <t>Frequency - Each structure</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accept/Reject, 20MPa Concrete</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC Checklist, Dockets</t>
+  </si>
+  <si>
+    <t>2.2.4 - Formwork</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accept/Reject Dimension Accuracy, Alignment and position</t>
+  </si>
+  <si>
+    <t>Measuring Devices - GPS/ Total Station/ Rotating Laser</t>
+  </si>
+  <si>
+    <t>Consult - I</t>
+  </si>
+  <si>
+    <t>Remarks - Engineer inspection will be done along with the reinforcement</t>
+  </si>
+  <si>
+    <t>2.2.5 - Reinforcement Laps</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC Checklist, Visual Checks</t>
+  </si>
+  <si>
+    <t>HCL - M/I</t>
+  </si>
+  <si>
+    <t>2.2.6 - Reinforcement fixing and spacing</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S14.4.8</t>
+  </si>
+  <si>
+    <t>2.2.7 - Concrete Cover/Spacer blocks</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Min 50mm unless noted on plans</t>
+  </si>
+  <si>
+    <t>2.2.8 - Duct Penetrations and Water proofing</t>
+  </si>
+  <si>
+    <t>Frequency - Each Duct</t>
+  </si>
+  <si>
+    <t>Spec/standard - Plans and Shop Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Penetration reinforcement installed as shown on the drawings, Hydrotite CJ 0725 3K wrapped around the duct</t>
+  </si>
+  <si>
+    <t>Reporting Format - Pre-Pour QC Checklist</t>
+  </si>
+  <si>
+    <t>Remarks - Refer to drawings, shop drawings and plans</t>
+  </si>
+  <si>
+    <t>2.2.9 - Inspection of Reinforcement steel and Formwork</t>
+  </si>
+  <si>
+    <t>Hold Points Sign off - Hold point</t>
+  </si>
+  <si>
+    <t>2.2.2010 - Concrete Placement</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.3.1</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Mix Design Docket</t>
+  </si>
+  <si>
+    <t>2.2.2011 - Concrete Finish</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.5</t>
+  </si>
+  <si>
+    <t>Frequency - Each Batch</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.5.3.2</t>
+  </si>
+  <si>
+    <t>Reporting Format - Test Results, QC Checklist</t>
+  </si>
+  <si>
+    <t>HCL - R/M</t>
+  </si>
+  <si>
+    <t>2.2.2013 - Grout Testing</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.5.3.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Test at 28 days</t>
+  </si>
+  <si>
+    <t>Reporting Format - Test Results</t>
+  </si>
+  <si>
+    <t>2.3.1 - Formwork</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.2 CIV Spec - S13.4.3.2</t>
+  </si>
+  <si>
+    <t>2.3.2 - Concrete Placement</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.3.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 20MPa Concrete</t>
+  </si>
+  <si>
+    <t>Reporting Format - Dockets, Pre- Pour QA Checklist</t>
+  </si>
+  <si>
+    <t>2.3.3 - Duct Penetrations and Water proofing</t>
+  </si>
+  <si>
+    <t>Reporting Format - Pre-Pour QA Checklist</t>
+  </si>
+  <si>
+    <t>Remarks - Refer to Shop drawings and Plans</t>
+  </si>
+  <si>
+    <t>2.3.4 - Curing</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.3.6</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC Checklist</t>
+  </si>
+  <si>
+    <t>2.3.5 - Grouting of Ducts and Voids</t>
+  </si>
+  <si>
+    <t>Frequency - Each Duct and Each Structure</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.3.7</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All voids, and gaps of duct penetrations</t>
+  </si>
+  <si>
+    <t>2.3.6 - Backfilling GAP65 or AP40</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Clegg Hammer</t>
+  </si>
+  <si>
+    <t>Remarks - Engineer to inspect before backfilling</t>
+  </si>
+  <si>
+    <t>2.3.7 - Concrete Finish</t>
+  </si>
+  <si>
+    <t>2.3.9 - Grout Testing</t>
+  </si>
+  <si>
+    <t>3.1 - As built Works</t>
+  </si>
+  <si>
+    <t>Frequency - Each Chamber</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.4.10 CIV Spec - S13.4.7</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Surveyor Equipment, Total Station</t>
+  </si>
+  <si>
+    <t>Reporting Format - Certified As- built PDF and DWG file</t>
+  </si>
+  <si>
+    <t>2.2.2012 - Concrete Testing Slump Test 4x Concrete Cylinder tests</t>
+  </si>
+  <si>
+    <t>2.3.8 - Concrete Testing Slump Test 4x Concrete Cylinder tests</t>
+  </si>
+  <si>
+    <t>1.2.2 - Access covers and frames Landside: 240 kN Class D Airside: 900 kN Class G</t>
+  </si>
+  <si>
+    <t>1 - Material Compliance (1.1 - Fill Materials)</t>
+  </si>
+  <si>
+    <t>1 - Material Compliance (1.2 - Pits/Chamber)</t>
+  </si>
+  <si>
+    <t>1 - Material Compliance (1.3 - Concrete Mix)</t>
+  </si>
+  <si>
+    <t>1 - Material Compliance (1.4 - Reinforcement)</t>
+  </si>
+  <si>
+    <t>1 - Material Compliance (1.5 - Waterproofing)</t>
+  </si>
+  <si>
+    <t>2 - Construction (2.1 - Pre-Condition Assessments)</t>
+  </si>
+  <si>
+    <t>2 - Construction (2.2 - Cast In-Situ Chamber Construction)</t>
+  </si>
+  <si>
+    <t>2 - Construction (2.3 - Mass Concrete Chambers)</t>
+  </si>
+  <si>
+    <t>3 - Post Construction</t>
+  </si>
+  <si>
+    <t>checkpoint-no-status</t>
+  </si>
+  <si>
+    <t>Document Deliverables</t>
+  </si>
+  <si>
+    <t>(The documents listed below shall be completed and compiled during the course of the construction)</t>
+  </si>
+  <si>
+    <t>Distribution Records</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>Signoff</t>
+  </si>
+  <si>
+    <t>○ Results of Compactions</t>
+  </si>
+  <si>
+    <t>○ Material Certificates</t>
+  </si>
+  <si>
+    <t>○ QC records</t>
+  </si>
+  <si>
+    <t>○ EPD Certificate if applicable</t>
+  </si>
+  <si>
+    <t>○ As Built</t>
+  </si>
+  <si>
+    <t>ITP-CIV-008-1 - Utilities Chambers</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.3.5 DP001-MMD-DRW-UT-B-Z-3100-3117</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.1 CIV Spec - S4.5.9 (earthworks section)</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S4.6.2.2 (earthworks section)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Bearing Capacity as mentioned in the drawings</t>
+  </si>
+  <si>
+    <t>○ For cohesive soil Shear Vane Test at EGL (0.0m), 0.5m and 1.0m depths</t>
+  </si>
+  <si>
+    <t>○ For non-cohesive soil scala test to 1m depth. Inspection required by engineer for acceptance</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Shear Vane, Scala Penetrometer</t>
+  </si>
+  <si>
+    <t>Remarks - If ground failing, Engineer to advise MM will attend all witness points</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC Checklist, As-Built drawings to confirm the tolerances</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S14.4.7 DP001-MMD-DRW-CS-B-Z-3013</t>
+  </si>
+  <si>
+    <t>Remarks - Reinforcement Laps to be followed as shown in the plans</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S14.4.8 CIV Spec - S14.4.11 Shop Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accept/Reject Hydrotite CJ 0725 3K installed in construction joints as per drawings</t>
+  </si>
+  <si>
+    <t>Remarks - Back formwork shall not be placed until the Engineer Inspection is completed.</t>
+  </si>
+  <si>
+    <t>Reporting Format - Dockets, Pre- Pour QC Checklist</t>
+  </si>
+  <si>
+    <t>Remarks - Pumping concrete to be done with prior approval.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Formed Structure:</t>
+  </si>
+  <si>
+    <t>○ Below Ground: F1</t>
+  </si>
+  <si>
+    <t>○ With Tanking: F4</t>
+  </si>
+  <si>
+    <t>Unformed Structures:</t>
+  </si>
+  <si>
+    <t>○ Buried Foundations: U1</t>
+  </si>
+  <si>
+    <t>○ Exposed Foundations: U5</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 1x Test results at 7 days</t>
+  </si>
+  <si>
+    <t>○ 3x test results at 28 day</t>
+  </si>
+  <si>
+    <t>○ Slump test during the concrete pour</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - As shown on the drawings, Hydrotite CJ 0725 3K wrapped around the pipe</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - A1/A2 Environment: 3 Days</t>
+  </si>
+  <si>
+    <t>○ B1/B2 Environment: 7 Days</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S13.4.4 Table 4.3 (Earthworks Section)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - CIV &gt; 25 Clegg Test corelated to an NDM</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC Checklist, QVC, Clegg Sheets</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Position tolerance +/- 20mm</t>
+  </si>
+  <si>
+    <t>○ Level Tolerance 0mm to +3mm</t>
+  </si>
+  <si>
+    <t>ITP-CIV-007-2 - Utilities Ducting</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.3.4</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accept/ Reject</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.3.5 CIV Spec - S4.4.5</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accept / Reject</t>
+  </si>
+  <si>
+    <t>Frequency - Each Pipe</t>
+  </si>
+  <si>
+    <t>Remarks - All the PE pipe colors must comply with the respective service as mentioned in S12.3.3</t>
+  </si>
+  <si>
+    <t>Frequency - Each Bend</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.4.5</t>
+  </si>
+  <si>
+    <t>1.2.3 - Electrofusion Couplers</t>
+  </si>
+  <si>
+    <t>Frequency - Each coupler</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec – S12.4.6</t>
+  </si>
+  <si>
+    <t>2.1.1 - Existing ducts/chambers to be removed</t>
+  </si>
+  <si>
+    <t>Frequency - Each pipe</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.4.1</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Removed and disposed</t>
+  </si>
+  <si>
+    <t>Reporting Format - Photos / Asbuilts</t>
+  </si>
+  <si>
+    <t>HCL - I</t>
+  </si>
+  <si>
+    <t>2.1.2 - Survey Setout Pipe alignments, Position, Heights</t>
+  </si>
+  <si>
+    <t>Frequency - Each Pipes/trench</t>
+  </si>
+  <si>
+    <t>Spec/standard - CAD Models</t>
+  </si>
+  <si>
+    <t>Reporting Format - Setout CSV file, Photos/Visual</t>
+  </si>
+  <si>
+    <t>Remarks - Setout model and CSV provided by HCL</t>
+  </si>
+  <si>
+    <t>2.2.2 - HDPE Ground Mat</t>
+  </si>
+  <si>
+    <t>Spec/standard - Note 10 – DP0001- MMD-DRW-UT-F-Z- 3137 - 3139</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Photos, Dockets</t>
+  </si>
+  <si>
+    <t>2.2.3 - Bedding, surround</t>
+  </si>
+  <si>
+    <t>Frequency - Per installation</t>
+  </si>
+  <si>
+    <t>Spec/standard - As per drwgs min/ max fill</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Rotating level / tape / staff</t>
+  </si>
+  <si>
+    <t>Reporting Format - Photos, QVC</t>
+  </si>
+  <si>
+    <t>Remarks - PAP7 for PE</t>
+  </si>
+  <si>
+    <t>2.2.4 - Pipe installation, Connection and jointing Electrofusion weld</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.4.5 CIV Spec - S12.4.6</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Observation</t>
+  </si>
+  <si>
+    <t>Remarks - Caps to be used if lines not complete, All Welding to be performed under controlled Environmental conditions.</t>
+  </si>
+  <si>
+    <t>2.2.5 - Weld Testing</t>
+  </si>
+  <si>
+    <t>Frequency - All welding Joints</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.5.2</t>
+  </si>
+  <si>
+    <t>Reporting Format - QVC, Photos, Test Results</t>
+  </si>
+  <si>
+    <t>Remarks - Frequency of testing in line with ISO13954 &amp; ISO13955</t>
+  </si>
+  <si>
+    <t>2.2.6 - Tracer Wires</t>
+  </si>
+  <si>
+    <t>Frequency - Comms duct</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.4.9 DP001-MMD-DRW- UT-F-Z-3137 - 3139</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Tracer Wire to 4mm2 multi-Strand Accept/Reject</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Continuity Test (electronically generated tone and detector probe)</t>
+  </si>
+  <si>
+    <t>Reporting Format - Photos, Test results, QC</t>
+  </si>
+  <si>
+    <t>2.2.7 - Inspection for Duct size, color, spacing,</t>
+  </si>
+  <si>
+    <t>Frequency - All ducts</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.4.5 DP001-MMD-DRW- UT-F-Z-3137 - 3139</t>
+  </si>
+  <si>
+    <t>Hold Points Sign off - Witness Point AIAL to inspect (Senior ICT Reliability Engineer)</t>
+  </si>
+  <si>
+    <t>Remarks - Engineer &amp; AIAL to inspect before backfilling</t>
+  </si>
+  <si>
+    <t>2.2.8 - Warning Tapes/ marker tapes</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.3.9 DP001-MMD-DRW- UT-F-Z-3137 - 3139</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Warning Tapes must refer to respective Services. Installation heights must follow the typical trench details.</t>
+  </si>
+  <si>
+    <t>Reporting Format - Photos</t>
+  </si>
+  <si>
+    <t>2.2.9 - Mag Slabs/Polymeric Slabs</t>
+  </si>
+  <si>
+    <t>Frequency - HV and LV ducts</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.3.10 DP001-MMD-DRW- UT-F-Z-3137 - 3139</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Installation heights must follow the typical trench details.</t>
+  </si>
+  <si>
+    <t>2.2.2010 - Draw Cord</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Continuous draw cord and excess to be left at the ends of each duct</t>
+  </si>
+  <si>
+    <t>Hold Points Sign off - Hold Point – AIAL to inspect (Senior ICT Reliability Engineer)</t>
+  </si>
+  <si>
+    <t>2.2.2011 - Pipe Cover and Backfilling</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Backfilling CIV &gt; 25</t>
+  </si>
+  <si>
+    <t>Reporting Format - Photos, QVC, Clegg Sheets</t>
+  </si>
+  <si>
+    <t>Remarks - 12.5.2 of the DP Civil Specification only applies to the trench backfill material and does not apply to duct surround material.</t>
+  </si>
+  <si>
+    <t>3.1.1 - As built Works</t>
+  </si>
+  <si>
+    <t>SC - Sub</t>
+  </si>
+  <si>
+    <t>3.2.1 - Duct Cleaning and Proving</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Brush and Mandrill</t>
+  </si>
+  <si>
+    <t>Reporting Format - Photos/Videos</t>
+  </si>
+  <si>
+    <t>1.1.2 - Backfill Material GAP65 or TNZ M/4 AP40</t>
+  </si>
+  <si>
+    <t>1.1.1 - Bedding material PAP 7 for PE pipes AP40 for Chambers</t>
+  </si>
+  <si>
+    <t>1.2.1 - Pipes: 110 OD PE SDR 17, 160 OD PE SDR 17</t>
+  </si>
+  <si>
+    <t>1.2.2 - Bends: Pre-Fabricated HDPE bends</t>
+  </si>
+  <si>
+    <t>○ Asbuilts</t>
+  </si>
+  <si>
+    <t>○ Testing Results</t>
+  </si>
+  <si>
+    <t>○ CCTV</t>
+  </si>
+  <si>
+    <t>○ QC Checklist</t>
+  </si>
+  <si>
+    <t>1 - Material Compliance (1.2 - Pipes)</t>
+  </si>
+  <si>
+    <t>2 - Construction (2.2 - Ducting)</t>
+  </si>
+  <si>
+    <t>3 - Post Construction (3.1 - As-Builts)</t>
+  </si>
+  <si>
+    <t>3 - Post Construction (3.2 - Duct Condition)</t>
+  </si>
+  <si>
+    <t>Remarks - Once removed, all trenches to be backfilled to Subgrade level</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Survey Setout Pipe alignments, Position, Manholes Position and Heights</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.4.2 CIV Spec - S4.5.9 (earthworks section)</t>
+  </si>
+  <si>
+    <t>Remarks - HDPE ground protection Mat will be installed only in areas shown in the drawings.</t>
+  </si>
+  <si>
+    <t>○ Single layer, 1m for comms, 2m for HV&amp;LV</t>
+  </si>
+  <si>
+    <t>Reporting Format - QVC, As-Builts</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Visual Checks for each Weld</t>
+  </si>
+  <si>
+    <t>○ Peel Decohesion Testing for at least 3 duct weld pieces is recommended</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S12.3.8 S12.4.8, DP001-MMD-DRW- UT-F-Z-3137 - 3139</t>
+  </si>
+  <si>
+    <t>Spec/standard - CIV Spec - S4.4.5 Table 4.3 (Earthworks Section), DP001-MMD-DRW- UT-F-Z-3137 - 3139</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>ITP-Ele-005-Rev 1 - Pier Underground Ducts below slab</t>
+  </si>
+  <si>
+    <t>4 - Process</t>
+  </si>
+  <si>
+    <t>01 - Delivery inspection of ducts and fittings</t>
+  </si>
+  <si>
+    <t>Frequency - Each delivery</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Correct SDR, diameter and undamaged</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Visual and CoC</t>
+  </si>
+  <si>
+    <t>Reporting Format - Delivery slip / CoC</t>
+  </si>
+  <si>
+    <t>HCL - R.</t>
+  </si>
+  <si>
+    <t>Hold Points Sign off - N/A</t>
+  </si>
+  <si>
+    <t>Remarks - Material CoC matches spec; no damage No damaged packing material.</t>
+  </si>
+  <si>
+    <t>02 - Welder qualification check</t>
+  </si>
+  <si>
+    <t>Frequency - Before work start</t>
+  </si>
+  <si>
+    <t>Spec/standard - NZ Certifications; standards and industry training</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Accept / reject</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Document review</t>
+  </si>
+  <si>
+    <t>Reporting Format - Welder Qualification</t>
+  </si>
+  <si>
+    <t>SC - I</t>
+  </si>
+  <si>
+    <t>Remarks - Welder certification reviewed and approved prior works</t>
+  </si>
+  <si>
+    <t>03 - Duct alignment check</t>
+  </si>
+  <si>
+    <t>Frequency - Per section</t>
+  </si>
+  <si>
+    <t>Spec/standard - Project drawings / layout 4.23.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Installed as per drawing</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Visual</t>
+  </si>
+  <si>
+    <t>Reporting Format - NA</t>
+  </si>
+  <si>
+    <t>Remarks - No excessive bends or misalignments</t>
+  </si>
+  <si>
+    <t>04 - Inspection of duct cleanliness and joint</t>
+  </si>
+  <si>
+    <t>Frequency - Before welding</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Ends scraped, dry, and clean</t>
+  </si>
+  <si>
+    <t>Reporting Format - Quality check sheet</t>
+  </si>
+  <si>
+    <t>Remarks - Free of debris, scratches, moisture</t>
+  </si>
+  <si>
+    <t>05 - Fusion setup – pipe end scraping, machine check</t>
+  </si>
+  <si>
+    <t>Frequency - Each weld</t>
+  </si>
+  <si>
+    <t>Spec/standard - ISO 13954 / ISO 13955</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Scraping complete, scan barcode</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Scraper / EF machine</t>
+  </si>
+  <si>
+    <t>SC - M</t>
+  </si>
+  <si>
+    <t>Remarks - Pre-weld approved by supervisor before fusion</t>
+  </si>
+  <si>
+    <t>06 - Electrofusion weld execution</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Parameters met; uniform bead</t>
+  </si>
+  <si>
+    <t>Measuring Devices - EF machine logger</t>
+  </si>
+  <si>
+    <t>Reporting Format - Fusion log / Quality check sheet</t>
+  </si>
+  <si>
+    <t>Remarks - Fusion data logged. Weld number time and date next to weld.</t>
+  </si>
+  <si>
+    <t>07 - Post Weld visual inspection and cooling</t>
+  </si>
+  <si>
+    <t>Spec/standard - ISO 13955 / 13956</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Cooled per spec</t>
+  </si>
+  <si>
+    <t>Remarks - Cooling time respected; weld integrity confirmed.</t>
+  </si>
+  <si>
+    <t>08 - Weld traceability and documentation</t>
+  </si>
+  <si>
+    <t>Spec/standard - 7.3.4.9</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Barcode and weld ID logged</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Log Sheet</t>
+  </si>
+  <si>
+    <t>Reporting Format - Quality Check sheet</t>
+  </si>
+  <si>
+    <t>HCL - S</t>
+  </si>
+  <si>
+    <t>Remarks - Log completed and ID matched field location</t>
+  </si>
+  <si>
+    <t>09 - Post Weld inspection</t>
+  </si>
+  <si>
+    <t>Frequency - Project Scope</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - CCTV footage of below ground ducting, duct contains no debris or penetrations that could damage cable sheath when pulled</t>
+  </si>
+  <si>
+    <t>Measuring Devices - CCTV</t>
+  </si>
+  <si>
+    <t>Reporting Format - Video</t>
+  </si>
+  <si>
+    <t>Remarks - Submission of CCTV footage before handover</t>
+  </si>
+  <si>
+    <t>10 - Electro fusion welder calibration</t>
+  </si>
+  <si>
+    <t>Spec/standard - As per manufactures specification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Electro fusion welder calibration certificate</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Calibration certificate</t>
+  </si>
+  <si>
+    <t>Reporting Format - Certificate</t>
+  </si>
+  <si>
+    <t>Remarks - Aconex Field Issue 1262</t>
+  </si>
+  <si>
+    <t>11 - Draw Cord</t>
+  </si>
+  <si>
+    <t>Frequency - Each conduit</t>
+  </si>
+  <si>
+    <t>Spec/standard - 12.3.8</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 5 kN</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC checklist/ photograph</t>
+  </si>
+  <si>
+    <t>12 - Installation of tracer wire</t>
+  </si>
+  <si>
+    <t>Frequency - Each installed duct</t>
+  </si>
+  <si>
+    <t>Spec/standard - DP001-MMD-SPC- EL-Z-Z-0017.3.3.11</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Wire securely fixed on top of duct, continuous, accessible at both ends</t>
+  </si>
+  <si>
+    <t>Measuring Devices -</t>
+  </si>
+  <si>
+    <t>Reporting Format - QC checklist Photograph</t>
+  </si>
+  <si>
+    <t>SC - T</t>
+  </si>
+  <si>
+    <t>Remarks - Tracer wire to be installed above duct, secured at 3m intervals. Ends terminated in accessible pits or boxes</t>
+  </si>
+  <si>
+    <t>13 - Pit to Duct Jointing Process</t>
+  </si>
+  <si>
+    <t>Frequency - Each duct at each pit</t>
+  </si>
+  <si>
+    <t>Spec/standard - DP001-MMD-SPC- EL-Z-Z-0017.3.3.12</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Manufacturer’s installation guidelines and project specifications</t>
+  </si>
+  <si>
+    <t>Measuring Devices - Secure, watertight connection between duct and pit; no gaps or misalignment</t>
+  </si>
+  <si>
+    <t>Reporting Format - Visual check, QA checklist / photograph</t>
+  </si>
+  <si>
+    <t>SC - R</t>
+  </si>
+  <si>
+    <t>Consult - S</t>
+  </si>
+  <si>
+    <t>○ Delivery Slip / Certificate of Conformance (CoC) - For delivery inspection of HDPE ducts and fittings.</t>
+  </si>
+  <si>
+    <t>○ Welder qualification checks.</t>
+  </si>
+  <si>
+    <t>○ Calibration Certificates - For electrofusion welder calibration.</t>
+  </si>
+  <si>
+    <t>○ Log Sheets - For weld traceability and documentation.</t>
+  </si>
+  <si>
+    <t>○ CCTV Footage - For post-weld inspection.</t>
+  </si>
+  <si>
+    <t>○ QA Reports - For duct alignment checks.</t>
+  </si>
+  <si>
+    <t>Spec/standard - AS/NZS 4130 / Manufacturer CoC 7.3.3.3, 12.3.3, 12,3.4</t>
+  </si>
+  <si>
+    <t>Spec/standard - ISO 13954, 5.10.3</t>
+  </si>
+  <si>
+    <t>Spec/standard - ISO 13955, 12.4.6., 12.5.2</t>
+  </si>
+  <si>
+    <t>SC - R, Sub</t>
+  </si>
+  <si>
+    <t>Spec/standard - DP001-MMD-SPC- EL-Z-Z-001, 12.5.2</t>
   </si>
 </sst>
 </file>
@@ -202,7 +1300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +1480,48 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -543,8 +1683,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,23 +2074,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -968,7 +2123,5650 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>12</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>12</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>12</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>12</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>12</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>12</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>12</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>12</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>12</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>12</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>12</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>12</v>
+      </c>
+      <c r="B333" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>12</v>
+      </c>
+      <c r="B334" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>12</v>
+      </c>
+      <c r="B336" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+    </row>
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>12</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>12</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>12</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>12</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>12</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>12</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>12</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>12</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>12</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>12</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>12</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>12</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>12</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>12</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>12</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>12</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>12</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>12</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>12</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>12</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>12</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>12</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>12</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>12</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>12</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>12</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>12</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>12</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>12</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>12</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>12</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>12</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>12</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>12</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>12</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>12</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>12</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>12</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>12</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>12</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>12</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>12</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>12</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>12</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>12</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>12</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>12</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>12</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>12</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>12</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>12</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>12</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>12</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>12</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>12</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>12</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>12</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>12</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>12</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>12</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>12</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>12</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>12</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>12</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>12</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>12</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>12</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>12</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>12</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>12</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>12</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>12</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>12</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>12</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>12</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>12</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>12</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>12</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>12</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>12</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>12</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>12</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>12</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>12</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>12</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>12</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>12</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>12</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>12</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>12</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>12</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B529" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>12</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>12</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>12</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>12</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>12</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>12</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>12</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>12</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>12</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>12</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>12</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>12</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>12</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>12</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>12</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>12</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>12</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>12</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>12</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>12</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>12</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>12</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>12</v>
+      </c>
+      <c r="B563" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>12</v>
+      </c>
+      <c r="B564" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>12</v>
+      </c>
+      <c r="B565" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>12</v>
+      </c>
+      <c r="B566" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>12</v>
+      </c>
+      <c r="B567" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B568" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B569" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D582" s="1"/>
+      <c r="E582" s="1"/>
+      <c r="F582" s="1"/>
+      <c r="G582" s="1"/>
+      <c r="H582" s="1"/>
+      <c r="I582" s="1"/>
+    </row>
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>12</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>12</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>12</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>12</v>
+      </c>
+      <c r="B589" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>12</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>12</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>12</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>12</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>12</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>12</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>12</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>12</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>12</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>12</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>12</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>12</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>12</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B604" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>12</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B606" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>12</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>12</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>12</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>12</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>12</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>12</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>12</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>12</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>12</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>12</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>12</v>
+      </c>
+      <c r="B619" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>12</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>12</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>12</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>12</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>12</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>12</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>12</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>12</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>12</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>12</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>12</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>12</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>12</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>12</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>12</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>12</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>12</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>12</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>12</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>12</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>12</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>12</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>12</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>12</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>12</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>12</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>12</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>12</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>12</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>12</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>12</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>12</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>12</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>12</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>12</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>12</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>12</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>12</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>12</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>12</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>12</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>12</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>12</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>12</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>12</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>12</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>12</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>12</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>12</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>12</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>12</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>12</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>12</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>12</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>12</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>12</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>12</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>12</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>12</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>12</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>12</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>12</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>12</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>12</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>12</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>12</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>12</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>12</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>12</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>12</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>12</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>12</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>12</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>12</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>12</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>12</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>12</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>12</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>12</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>12</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>12</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>12</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>12</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>12</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>12</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B715" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>12</v>
+      </c>
+      <c r="B716" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>12</v>
+      </c>
+      <c r="B717" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>12</v>
+      </c>
+      <c r="B718" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>12</v>
+      </c>
+      <c r="B719" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>12</v>
+      </c>
+      <c r="B720" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>12</v>
+      </c>
+      <c r="B721" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>12</v>
+      </c>
+      <c r="B722" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B723" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B724" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I724" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>